--- a/src/Agents.xlsx
+++ b/src/Agents.xlsx
@@ -441,10 +441,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -458,7 +458,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -467,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -478,16 +478,16 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9002</v>
+        <v>4</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -498,16 +498,16 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -521,13 +521,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -541,13 +541,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9002</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>

--- a/src/Agents.xlsx
+++ b/src/Agents.xlsx
@@ -447,7 +447,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -467,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -504,10 +504,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -547,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>

--- a/src/Agents.xlsx
+++ b/src/Agents.xlsx
@@ -441,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -470,7 +470,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -501,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -518,10 +518,10 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -538,10 +538,10 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>1</v>

--- a/src/Agents.xlsx
+++ b/src/Agents.xlsx
@@ -438,13 +438,13 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -470,7 +470,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -501,10 +501,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>2</v>

--- a/src/Agents.xlsx
+++ b/src/Agents.xlsx
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -458,16 +458,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -481,13 +481,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -501,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -518,16 +518,16 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -541,13 +541,13 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
